--- a/data/CS4/case9/case9_2030.xlsx
+++ b/data/CS4/case9/case9_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS4\case9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{213B881F-0B54-4AB4-9CA1-310C1E880BB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B485E2C-1584-466A-BF2D-7DA3EB4B7FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="47895" yWindow="-14280" windowWidth="19410" windowHeight="20985" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="-14280" windowWidth="19410" windowHeight="20985" tabRatio="722" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -4401,7 +4401,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
